--- a/JavaApplication19/src/excel/eliminar.xlsx
+++ b/JavaApplication19/src/excel/eliminar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CAB198-E950-49B5-8E2A-98BDB8A5F96B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F8290-110D-4E24-A20E-6F55458F6E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="20">
   <si>
     <t>hola 1</t>
   </si>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,21 +105,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -136,7 +134,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,112 +415,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
